--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_NSReadings.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_NSReadings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA5304-B421-4C44-8666-8FCDC881A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD23A27-A260-4B98-B646-94D0B8DB1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>Environment</t>
   </si>
@@ -71,15 +71,9 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Nadeem</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Sanket</t>
-  </si>
-  <si>
     <t>Test_Name</t>
   </si>
   <si>
@@ -251,39 +245,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>5.61</t>
-  </si>
-  <si>
-    <t>6.52</t>
-  </si>
-  <si>
-    <t>9.03</t>
-  </si>
-  <si>
-    <t>7.73</t>
-  </si>
-  <si>
-    <t>10.37</t>
-  </si>
-  <si>
-    <t>8.62</t>
-  </si>
-  <si>
-    <t>6.64</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>10.39</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -291,18 +252,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>9.44</t>
-  </si>
-  <si>
-    <t>11.72</t>
   </si>
   <si>
     <t>9.93</t>
@@ -312,8 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,73 +311,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,161 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -672,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -686,28 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -998,8 +705,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1042,9 +749,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1085,10 +792,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1134,24 +841,24 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="16" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1165,80 +872,80 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="31" t="s">
-        <v>72</v>
+      <c r="J2" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
@@ -1248,37 +955,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>85</v>
+      <c r="J3" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="10">
@@ -1295,45 +1002,45 @@
         <v>8.9733333333333345</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="10">
         <v>1.5</v>
@@ -1349,42 +1056,42 @@
         <v>1.2866666666666668</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="10">
@@ -1401,42 +1108,42 @@
         <v>3.2533333333333334</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10">
@@ -1453,42 +1160,42 @@
         <v>3.1199999999999997</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10">
@@ -1505,42 +1212,42 @@
         <v>3.6133333333333333</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10">
@@ -1557,42 +1264,42 @@
         <v>4.373333333333334</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="10">
@@ -1609,42 +1316,42 @@
         <v>4.5866666666666669</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
@@ -1661,42 +1368,42 @@
         <v>5.8033333333333337</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
@@ -1713,42 +1420,42 @@
         <v>2.0133333333333336</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="10">
